--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B9C676D-6218-46EA-BBA5-CFE3017F1D6E}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF851EE2-05B2-4B20-B40B-2DCAA9969CF4}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="1512" windowWidth="12576" windowHeight="8880" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView xWindow="1056" yWindow="1512" windowWidth="21360" windowHeight="8880" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="464">
   <si>
     <t>PUF_ID</t>
   </si>
@@ -1427,9 +1427,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>https://github.com/jeffdubo/project-4-financial-well-being</t>
   </si>
   <si>
     <t>Income and Employment</t>
@@ -1505,13 +1502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1529,6 +1526,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1831,8 +1832,8 @@
   <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D222"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,16 +1846,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>455</v>
       </c>
     </row>
@@ -1891,7 +1892,7 @@
         <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2100,7 +2101,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2114,7 +2115,7 @@
         <v>225</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2128,7 +2129,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2142,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2156,7 +2157,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2170,7 +2171,7 @@
         <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,7 +2185,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2198,7 +2199,7 @@
         <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2212,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2226,7 +2227,7 @@
         <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2284,7 +2285,7 @@
         <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2298,7 +2299,7 @@
         <v>225</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2312,7 +2313,7 @@
         <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2326,7 +2327,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2340,7 +2341,7 @@
         <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2354,7 +2355,7 @@
         <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2368,7 +2369,7 @@
         <v>260</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2382,7 +2383,7 @@
         <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,7 +2397,7 @@
         <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2498,7 +2499,7 @@
         <v>225</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2523,7 +2524,7 @@
         <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2537,7 +2538,7 @@
         <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2551,7 +2552,7 @@
         <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,27 +2600,27 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2633,7 +2634,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2647,7 +2648,7 @@
         <v>225</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2661,7 +2662,7 @@
         <v>225</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2675,7 +2676,7 @@
         <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2689,7 +2690,7 @@
         <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2703,7 +2704,7 @@
         <v>225</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2717,7 +2718,7 @@
         <v>225</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2731,7 +2732,7 @@
         <v>225</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2880,7 +2881,7 @@
         <v>260</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2927,7 +2928,7 @@
         <v>260</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2941,7 +2942,7 @@
         <v>225</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,7 +2967,7 @@
         <v>225</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,7 +3003,7 @@
         <v>225</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3027,7 +3028,7 @@
         <v>225</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3052,7 +3053,7 @@
         <v>225</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3066,7 +3067,7 @@
         <v>225</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3080,7 +3081,7 @@
         <v>225</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3094,7 +3095,7 @@
         <v>225</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3108,7 +3109,7 @@
         <v>225</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3133,7 +3134,7 @@
         <v>225</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3180,7 +3181,7 @@
         <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3251,13 +3252,13 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3265,11 +3266,11 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="1" t="s">
         <v>217</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>225</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,7 +3314,7 @@
         <v>225</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3338,7 +3339,7 @@
         <v>225</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,7 +3353,7 @@
         <v>225</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3366,7 +3367,7 @@
         <v>225</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,7 +3381,7 @@
         <v>225</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3394,7 +3395,7 @@
         <v>225</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,7 +3409,7 @@
         <v>225</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3444,7 +3445,7 @@
         <v>225</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3458,7 +3459,7 @@
         <v>225</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,7 +3473,7 @@
         <v>225</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3486,7 +3487,7 @@
         <v>225</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3500,7 +3501,7 @@
         <v>225</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3514,7 +3515,7 @@
         <v>225</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,7 +3529,7 @@
         <v>225</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,7 +3543,7 @@
         <v>225</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3556,7 +3557,7 @@
         <v>225</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3570,7 +3571,7 @@
         <v>225</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3584,7 +3585,7 @@
         <v>225</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3598,7 +3599,7 @@
         <v>225</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3612,31 +3613,31 @@
         <v>225</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3" t="s">
+      <c r="A140" s="4"/>
+      <c r="B140" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3661,7 +3662,7 @@
         <v>225</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3697,7 +3698,7 @@
         <v>225</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3711,7 +3712,7 @@
         <v>225</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3725,7 +3726,7 @@
         <v>225</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3739,7 +3740,7 @@
         <v>225</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3753,7 +3754,7 @@
         <v>225</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3767,7 +3768,7 @@
         <v>225</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3781,7 +3782,7 @@
         <v>225</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3886,7 +3887,7 @@
         <v>225</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4088,22 +4089,22 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="3" t="s">
+      <c r="A180" s="4"/>
+      <c r="B180" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
@@ -4130,7 +4131,7 @@
         <v>225</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4144,7 +4145,7 @@
         <v>260</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4158,7 +4159,7 @@
         <v>260</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4275,7 +4276,7 @@
         <v>225</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4289,7 +4290,7 @@
         <v>225</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4303,7 +4304,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4317,7 +4318,7 @@
         <v>225</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,7 +4332,7 @@
         <v>225</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4345,7 +4346,7 @@
         <v>225</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4359,7 +4360,7 @@
         <v>225</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4373,7 +4374,7 @@
         <v>225</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4387,7 +4388,7 @@
         <v>225</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4412,7 +4413,7 @@
         <v>260</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4518,7 +4519,7 @@
         <v>435</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4563,7 +4564,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>207</v>
       </c>
@@ -4572,9 +4573,6 @@
       </c>
       <c r="C215" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">

--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF851EE2-05B2-4B20-B40B-2DCAA9969CF4}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2170023-014B-412E-A424-BAF557C34E4E}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="1512" windowWidth="21360" windowHeight="8880" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView minimized="1" xWindow="84" yWindow="1032" windowWidth="11712" windowHeight="11112" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$H$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="512">
   <si>
     <t>PUF_ID</t>
   </si>
@@ -1144,12 +1144,6 @@
     <t>Provided unexpected financial support to a family member or friend</t>
   </si>
   <si>
-    <t>Respondent did not select any item in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOCKS bank </t>
-  </si>
-  <si>
     <t>Who in household makes financial decisions</t>
   </si>
   <si>
@@ -1426,9 +1420,6 @@
     <t>Household and Family Characteristics</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Income and Employment</t>
   </si>
   <si>
@@ -1438,10 +1429,163 @@
     <t>Financial Experiences</t>
   </si>
   <si>
-    <t>Financial Experiences?</t>
-  </si>
-  <si>
-    <t>Behaviors Skills and Attitudes</t>
+    <t>ML Features 1</t>
+  </si>
+  <si>
+    <t>ML Features 2</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>9 - $ ranges</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Liquid Savings</t>
+  </si>
+  <si>
+    <t>Able to absorb unexpected expense</t>
+  </si>
+  <si>
+    <t>Have non-retirement investments</t>
+  </si>
+  <si>
+    <t>Have friends/family safety net for emergency needs</t>
+  </si>
+  <si>
+    <t>Turned down for credit</t>
+  </si>
+  <si>
+    <t>Contacted by debt collector</t>
+  </si>
+  <si>
+    <t>Have checking or savings account</t>
+  </si>
+  <si>
+    <t>Use non-bank, short-term credit (payday, loan, pawn, auto-title)</t>
+  </si>
+  <si>
+    <t>Use non-bank product (re-loadable card, check cashing, remittance)</t>
+  </si>
+  <si>
+    <t>Negative financial service experiences</t>
+  </si>
+  <si>
+    <t>Experienced negative shocks</t>
+  </si>
+  <si>
+    <t>Have student loand</t>
+  </si>
+  <si>
+    <t>Financial socialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respondent did not select any item in SHOCKS bank </t>
+  </si>
+  <si>
+    <t>Responsibility for own finances</t>
+  </si>
+  <si>
+    <t>Planning horizon of 5+ years</t>
+  </si>
+  <si>
+    <t>Propensity to plan for finances</t>
+  </si>
+  <si>
+    <t>Effective day-to-day money management behaviors</t>
+  </si>
+  <si>
+    <t>Have a habit of saving</t>
+  </si>
+  <si>
+    <t>Confident in ability to achieve a financial goal</t>
+  </si>
+  <si>
+    <t>Financial skill</t>
+  </si>
+  <si>
+    <t>Financial knowledge</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Physical Health</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Housing satisfaction</t>
+  </si>
+  <si>
+    <t>Housing status</t>
+  </si>
+  <si>
+    <t>Financially supporting children</t>
+  </si>
+  <si>
+    <t>Age of oldest child you financial support</t>
+  </si>
+  <si>
+    <t>Census region</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>Federal poverty status</t>
+  </si>
+  <si>
+    <t>Employment status</t>
+  </si>
+  <si>
+    <t>Income volatilty</t>
+  </si>
+  <si>
+    <t>Employer-provided health benefits</t>
+  </si>
+  <si>
+    <t>Employer-provided retirement savings benefits</t>
+  </si>
+  <si>
+    <t>Other employye-provided benefits (e.g., tuition reimbursement, work-life policies)</t>
+  </si>
+  <si>
+    <t>Military service (servicemember of dependent)</t>
+  </si>
+  <si>
+    <t>Household income</t>
+  </si>
+  <si>
+    <t>Receiving social security retirement benefits</t>
+  </si>
+  <si>
+    <t>Financial Behaviors, Skills and Attitudes</t>
+  </si>
+  <si>
+    <t>Non-metro of Metro</t>
+  </si>
+  <si>
+    <t>Experience material hardship</t>
+  </si>
+  <si>
+    <t>Scale - Financial Knowledge -</t>
+  </si>
+  <si>
+    <t>Other - Used for weighting</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Housing cost burden</t>
   </si>
 </sst>
 </file>
@@ -1829,37 +1973,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +2031,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +2042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1892,10 +2053,16 @@
         <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +2073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +2084,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +2095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2106,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +2120,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +2134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +2148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +2162,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +2204,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2218,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2065,7 +2232,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2246,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2101,10 +2268,13 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,10 +2285,13 @@
         <v>225</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,10 +2302,13 @@
         <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,10 +2319,13 @@
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2157,10 +2336,13 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2171,10 +2353,13 @@
         <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2185,10 +2370,13 @@
         <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2199,10 +2387,13 @@
         <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2213,10 +2404,13 @@
         <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2227,10 +2421,13 @@
         <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2241,7 +2438,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +2460,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2274,7 +2471,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2285,10 +2482,13 @@
         <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2299,10 +2499,13 @@
         <v>225</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2313,10 +2516,13 @@
         <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2327,10 +2533,13 @@
         <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2341,10 +2550,13 @@
         <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2355,10 +2567,13 @@
         <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2369,10 +2584,13 @@
         <v>260</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2383,10 +2601,13 @@
         <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2397,10 +2618,13 @@
         <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2411,7 +2635,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2422,7 +2646,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2433,7 +2657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,7 +2668,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2679,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2466,7 +2690,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2477,7 +2701,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2488,7 +2712,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2499,10 +2723,13 @@
         <v>225</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2513,7 +2740,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2524,10 +2751,13 @@
         <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2538,10 +2768,13 @@
         <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2552,10 +2785,13 @@
         <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2566,7 +2802,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2577,7 +2813,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,7 +2824,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2598,8 +2834,11 @@
       <c r="C59" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -2610,20 +2849,26 @@
         <v>225</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2634,10 +2879,13 @@
         <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -2648,10 +2896,13 @@
         <v>225</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,10 +2913,13 @@
         <v>225</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -2676,10 +2930,13 @@
         <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -2690,10 +2947,13 @@
         <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -2704,10 +2964,13 @@
         <v>225</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -2718,10 +2981,13 @@
         <v>225</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -2732,10 +2998,13 @@
         <v>225</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -2745,8 +3014,11 @@
       <c r="C70" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2756,8 +3028,11 @@
       <c r="C71" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -2767,8 +3042,11 @@
       <c r="C72" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -2778,8 +3056,11 @@
       <c r="C73" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -2789,8 +3070,11 @@
       <c r="C74" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -2800,8 +3084,11 @@
       <c r="C75" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -2811,8 +3098,11 @@
       <c r="C76" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -2822,8 +3112,11 @@
       <c r="C77" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -2833,8 +3126,11 @@
       <c r="C78" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2844,8 +3140,11 @@
       <c r="C79" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -2856,10 +3155,13 @@
         <v>225</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2870,7 +3172,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -2881,10 +3183,13 @@
         <v>260</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2894,8 +3199,11 @@
       <c r="C83" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D83" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3213,11 @@
       <c r="C84" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -2916,8 +3227,11 @@
       <c r="C85" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2928,10 +3242,13 @@
         <v>260</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2942,10 +3259,13 @@
         <v>225</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2956,7 +3276,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2967,10 +3287,10 @@
         <v>225</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2981,7 +3301,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -2992,7 +3312,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -3003,10 +3323,13 @@
         <v>225</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -3017,7 +3340,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -3028,10 +3351,13 @@
         <v>225</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -3042,7 +3368,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -3053,10 +3379,13 @@
         <v>225</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
@@ -3067,10 +3396,13 @@
         <v>225</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -3081,10 +3413,13 @@
         <v>225</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -3095,10 +3430,13 @@
         <v>225</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -3109,10 +3447,13 @@
         <v>225</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
@@ -3123,7 +3464,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -3134,10 +3475,13 @@
         <v>225</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -3148,7 +3492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -3159,7 +3503,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -3170,7 +3514,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
@@ -3181,10 +3525,13 @@
         <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3542,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
@@ -3208,8 +3555,11 @@
       <c r="D108" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F108" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
@@ -3222,8 +3572,11 @@
       <c r="D109" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F109" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
@@ -3236,8 +3589,11 @@
       <c r="D110" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F110" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
@@ -3250,8 +3606,11 @@
       <c r="D111" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F111" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>109</v>
       </c>
@@ -3264,8 +3623,11 @@
       <c r="D112" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F112" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="2" t="s">
         <v>339</v>
@@ -3274,8 +3636,11 @@
       <c r="D113" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F113" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -3288,8 +3653,11 @@
       <c r="D114" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F114" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
@@ -3300,10 +3668,13 @@
         <v>225</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
@@ -3314,10 +3685,13 @@
         <v>225</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -3328,7 +3702,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
@@ -3339,10 +3713,13 @@
         <v>225</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
@@ -3353,10 +3730,13 @@
         <v>225</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
@@ -3367,10 +3747,13 @@
         <v>225</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
@@ -3381,10 +3764,13 @@
         <v>225</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
@@ -3395,10 +3781,13 @@
         <v>225</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
@@ -3409,10 +3798,13 @@
         <v>225</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -3423,7 +3815,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -3434,7 +3826,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -3445,10 +3837,13 @@
         <v>225</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
@@ -3459,10 +3854,13 @@
         <v>225</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
@@ -3473,10 +3871,13 @@
         <v>225</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
@@ -3487,10 +3888,13 @@
         <v>225</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
@@ -3501,10 +3905,13 @@
         <v>225</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
@@ -3515,10 +3922,13 @@
         <v>225</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
@@ -3529,10 +3939,13 @@
         <v>225</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -3543,10 +3956,13 @@
         <v>225</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
@@ -3557,10 +3973,13 @@
         <v>225</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
@@ -3571,10 +3990,13 @@
         <v>225</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -3585,10 +4007,13 @@
         <v>225</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -3599,10 +4024,13 @@
         <v>225</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -3613,333 +4041,370 @@
         <v>225</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C160" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>225</v>
@@ -3947,21 +4412,21 @@
     </row>
     <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>225</v>
@@ -3969,7 +4434,7 @@
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>394</v>
@@ -3980,10 +4445,10 @@
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>225</v>
@@ -3991,10 +4456,10 @@
     </row>
     <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>225</v>
@@ -4002,10 +4467,10 @@
     </row>
     <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>225</v>
@@ -4013,10 +4478,10 @@
     </row>
     <row r="172" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>225</v>
@@ -4024,10 +4489,10 @@
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>225</v>
@@ -4035,10 +4500,10 @@
     </row>
     <row r="174" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>225</v>
@@ -4046,10 +4511,10 @@
     </row>
     <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>225</v>
@@ -4057,582 +4522,711 @@
     </row>
     <row r="176" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="4"/>
+      <c r="B179" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C180" s="4"/>
-    </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B185" s="1" t="s">
+    </row>
+    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="D202" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B203" s="1" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="E205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D206" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>434</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="C208" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="E210" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E211" s="1">
+        <v>5</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>449</v>
@@ -4641,28 +5235,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D222" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
-  <mergeCells count="8">
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="C179:C180"/>
+  <autoFilter ref="A1:H221" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
+  <mergeCells count="6">
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="C178:C179"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="C139:C140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2170023-014B-412E-A424-BAF557C34E4E}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E006AA-90CD-43AE-B145-A5514ED8DE46}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="84" yWindow="1032" windowWidth="11712" windowHeight="11112" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$H$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="504">
   <si>
     <t>PUF_ID</t>
   </si>
@@ -896,23 +896,6 @@
     <t>IRT score8</t>
   </si>
   <si>
-    <t>Understanding of long-term returns on</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">investment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Understanding of stocks vs bond vs savings volatility</t>
   </si>
   <si>
@@ -1066,12 +1049,6 @@
     <t>Any household member couldn't afford to see doctor or go to hospital</t>
   </si>
   <si>
-    <t>Any household member stopped taking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medication or took less due to costs </t>
-  </si>
-  <si>
     <t>Utilities shut off due to non-payment</t>
   </si>
   <si>
@@ -1264,12 +1241,6 @@
     <t>Respondent did not select any item in INTERCONNECTIONS bank</t>
   </si>
   <si>
-    <t>Everyone has a fair chance at moving up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the economic ladder </t>
-  </si>
-  <si>
     <t>How satisfied are you with the place you live currently?</t>
   </si>
   <si>
@@ -1429,24 +1400,6 @@
     <t>Financial Experiences</t>
   </si>
   <si>
-    <t>ML Features 1</t>
-  </si>
-  <si>
-    <t>ML Features 2</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>9 - $ ranges</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Liquid Savings</t>
   </si>
   <si>
@@ -1459,9 +1412,6 @@
     <t>Have friends/family safety net for emergency needs</t>
   </si>
   <si>
-    <t>Turned down for credit</t>
-  </si>
-  <si>
     <t>Contacted by debt collector</t>
   </si>
   <si>
@@ -1586,13 +1536,28 @@
   </si>
   <si>
     <t>Housing cost burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any household member stopped taking medication or took less due to costs </t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding of long-term returns on investment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone has a fair chance at moving up the economic ladder </t>
+  </si>
+  <si>
+    <t>Title/Category in Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,18 +1572,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1641,18 +1594,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1973,13 +1920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,39 +1935,28 @@
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +1967,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2042,7 +1978,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2053,16 +1989,13 @@
         <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2073,7 +2006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2028,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2039,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2053,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2067,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2148,7 +2081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2176,7 +2109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2137,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2218,7 +2151,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2165,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2179,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2257,7 +2190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2268,13 +2201,13 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2285,13 +2218,13 @@
         <v>225</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2302,13 +2235,13 @@
         <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2319,13 +2252,13 @@
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2336,13 +2269,13 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2353,13 +2286,13 @@
         <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2370,13 +2303,13 @@
         <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2387,13 +2320,13 @@
         <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,13 +2337,13 @@
         <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2421,13 +2354,13 @@
         <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2438,7 +2371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2482,13 +2415,13 @@
         <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2499,13 +2432,13 @@
         <v>225</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2516,13 +2449,13 @@
         <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2533,13 +2466,13 @@
         <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2550,13 +2483,13 @@
         <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2567,13 +2500,13 @@
         <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2584,13 +2517,13 @@
         <v>260</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2601,13 +2534,13 @@
         <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2618,13 +2551,13 @@
         <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2635,7 +2568,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2646,7 +2579,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2657,7 +2590,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2668,7 +2601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2679,7 +2612,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2690,7 +2623,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2701,7 +2634,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2712,7 +2645,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2723,13 +2656,13 @@
         <v>225</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2740,7 +2673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2751,13 +2684,13 @@
         <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2768,13 +2701,13 @@
         <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2785,13 +2718,13 @@
         <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2735,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2813,7 +2746,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2824,7 +2757,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2835,719 +2768,723 @@
         <v>284</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>225</v>
@@ -3555,16 +3492,16 @@
       <c r="D108" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E108" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>225</v>
@@ -3572,16 +3509,16 @@
       <c r="D109" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>225</v>
@@ -3589,16 +3526,16 @@
       <c r="D110" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E110" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>337</v>
+        <v>499</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>225</v>
@@ -3606,750 +3543,742 @@
       <c r="D111" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>109</v>
+      <c r="E111" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C112" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="2" t="s">
+      <c r="E112" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F128" s="1" t="s">
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>225</v>
@@ -4357,10 +4286,10 @@
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>225</v>
@@ -4368,10 +4297,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>225</v>
@@ -4379,21 +4308,21 @@
     </row>
     <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>225</v>
@@ -4401,10 +4330,10 @@
     </row>
     <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>225</v>
@@ -4412,10 +4341,10 @@
     </row>
     <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>225</v>
@@ -4423,10 +4352,10 @@
     </row>
     <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>225</v>
@@ -4434,10 +4363,10 @@
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>225</v>
@@ -4445,10 +4374,10 @@
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>225</v>
@@ -4456,10 +4385,10 @@
     </row>
     <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>225</v>
@@ -4467,10 +4396,10 @@
     </row>
     <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>225</v>
@@ -4478,10 +4407,10 @@
     </row>
     <row r="172" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>225</v>
@@ -4489,10 +4418,10 @@
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>225</v>
@@ -4500,10 +4429,10 @@
     </row>
     <row r="174" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>225</v>
@@ -4511,10 +4440,10 @@
     </row>
     <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>225</v>
@@ -4522,729 +4451,650 @@
     </row>
     <row r="176" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="2" t="s">
+      <c r="C181" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D184" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D185" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="D199" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B198" s="1" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="C201" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="C202" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="D203" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B203" s="1" t="s">
+      <c r="C204" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E205" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="C210" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E211" s="1">
-        <v>5</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B216" s="1" t="s">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>450</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H221" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
-  <mergeCells count="6">
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-  </mergeCells>
+  <autoFilter ref="A1:E218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E006AA-90CD-43AE-B145-A5514ED8DE46}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CC7DA4-F91C-4AC9-AAF8-645AB7FC1A0D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView xWindow="6210" yWindow="2370" windowWidth="16170" windowHeight="15285" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="507">
   <si>
     <t>PUF_ID</t>
   </si>
@@ -1551,6 +1551,15 @@
   </si>
   <si>
     <t>Title/Category in Report</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other - Get dummies</t>
   </si>
 </sst>
 </file>
@@ -1920,26 +1929,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}">
-  <dimension ref="A1:E218"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D206" sqref="D206:D217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -1955,8 +1966,11 @@
       <c r="E1" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +2009,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2019,11 @@
       <c r="C5" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2016,8 +2033,11 @@
       <c r="C6" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2027,8 +2047,11 @@
       <c r="C7" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2062,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2076,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2104,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2132,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2146,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2174,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2165,7 +2188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2179,7 +2202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2213,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2230,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2247,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2281,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2275,7 +2298,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2315,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2309,7 +2332,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2349,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2343,7 +2366,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2383,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2371,7 +2394,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,7 +2405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2393,7 +2416,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2404,7 +2427,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2421,7 +2444,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2461,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +2478,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2472,7 +2495,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2489,7 +2512,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2523,7 +2546,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2540,7 +2563,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2557,7 +2580,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2568,7 +2591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,7 +2602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2601,7 +2624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2612,7 +2635,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2623,7 +2646,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2634,7 +2657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2644,8 +2667,11 @@
       <c r="C50" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +2688,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2673,7 +2699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2690,7 +2716,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2733,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2724,7 +2750,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2761,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2757,7 +2783,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2771,7 +2797,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2788,7 +2814,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2848,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2839,7 +2865,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2856,7 +2882,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2873,7 +2899,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2890,7 +2916,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2907,7 +2933,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2924,7 +2950,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2938,7 +2964,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2952,7 +2978,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2966,7 +2992,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +3006,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2994,7 +3020,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -3008,7 +3034,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -3022,7 +3048,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -3036,7 +3062,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -3050,7 +3076,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,7 +3090,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -3081,7 +3107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3091,8 +3117,11 @@
       <c r="C80" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3109,7 +3138,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -3123,7 +3152,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,7 +3166,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3151,7 +3180,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -3168,7 +3197,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3185,7 +3214,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3196,7 +3225,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3210,7 +3239,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3221,7 +3250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3232,7 +3261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3249,7 +3278,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3260,7 +3289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3277,7 +3306,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3288,7 +3317,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3305,7 +3334,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3322,7 +3351,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3339,7 +3368,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3356,7 +3385,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3373,7 +3402,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3384,7 +3413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3401,7 +3430,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3412,7 +3441,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3423,7 +3452,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3433,8 +3462,11 @@
       <c r="C104" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3451,7 +3483,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -3461,8 +3493,11 @@
       <c r="C106" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -3496,7 +3531,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3513,7 +3548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3530,7 +3565,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3547,7 +3582,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3564,7 +3599,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3581,7 +3616,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3598,7 +3633,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3609,7 +3644,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3626,7 +3661,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3643,7 +3678,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -3660,7 +3695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -3677,7 +3712,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -3694,7 +3729,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -3711,7 +3746,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3722,7 +3757,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3733,7 +3768,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -3750,7 +3785,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3767,7 +3802,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -3801,7 +3836,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3818,7 +3853,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -3835,7 +3870,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3852,7 +3887,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -3869,7 +3904,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3886,7 +3921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3903,7 +3938,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3920,7 +3955,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3937,7 +3972,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3954,7 +3989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -3971,7 +4006,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -3982,7 +4017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -3999,7 +4034,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -4010,7 +4045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -4020,8 +4055,11 @@
       <c r="C141" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D141" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -4038,7 +4076,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -4055,7 +4093,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -4072,7 +4110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4127,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -4106,7 +4144,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -4123,7 +4161,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -4140,7 +4178,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -4151,7 +4189,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>372</v>
       </c>
@@ -4162,7 +4200,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
@@ -4173,7 +4211,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -4183,8 +4221,11 @@
       <c r="C152" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D152" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
@@ -4194,8 +4235,11 @@
       <c r="C153" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D153" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -4205,8 +4249,11 @@
       <c r="C154" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D154" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -4217,7 +4264,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
@@ -4234,7 +4281,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -4251,7 +4298,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -4262,7 +4309,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -4273,7 +4320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -4283,8 +4330,11 @@
       <c r="C160" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D160" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -4294,8 +4344,11 @@
       <c r="C161" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -4305,8 +4358,11 @@
       <c r="C162" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D162" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -4316,8 +4372,11 @@
       <c r="C163" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D163" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -4327,8 +4386,11 @@
       <c r="C164" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D164" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -4338,8 +4400,11 @@
       <c r="C165" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D165" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>389</v>
       </c>
@@ -4349,8 +4414,11 @@
       <c r="C166" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D166" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>163</v>
       </c>
@@ -4360,8 +4428,11 @@
       <c r="C167" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D167" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>164</v>
       </c>
@@ -4371,8 +4442,11 @@
       <c r="C168" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D168" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>165</v>
       </c>
@@ -4382,8 +4456,11 @@
       <c r="C169" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D169" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -4393,8 +4470,11 @@
       <c r="C170" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D170" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>167</v>
       </c>
@@ -4404,8 +4484,11 @@
       <c r="C171" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D171" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>168</v>
       </c>
@@ -4415,8 +4498,11 @@
       <c r="C172" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D172" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>169</v>
       </c>
@@ -4426,8 +4512,11 @@
       <c r="C173" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D173" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>170</v>
       </c>
@@ -4437,8 +4526,11 @@
       <c r="C174" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D174" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>171</v>
       </c>
@@ -4448,8 +4540,11 @@
       <c r="C175" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D175" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>172</v>
       </c>
@@ -4459,8 +4554,11 @@
       <c r="C176" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D176" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>173</v>
       </c>
@@ -4477,7 +4575,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>174</v>
       </c>
@@ -4494,7 +4592,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>175</v>
       </c>
@@ -4511,7 +4609,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>176</v>
       </c>
@@ -4528,7 +4626,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>177</v>
       </c>
@@ -4538,8 +4636,11 @@
       <c r="C181" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D181" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>178</v>
       </c>
@@ -4550,7 +4651,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>179</v>
       </c>
@@ -4567,7 +4668,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>180</v>
       </c>
@@ -4584,7 +4685,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>181</v>
       </c>
@@ -4601,7 +4702,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>182</v>
       </c>
@@ -4618,7 +4719,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>183</v>
       </c>
@@ -4635,7 +4736,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -4646,7 +4747,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -4663,7 +4764,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>186</v>
       </c>
@@ -4680,7 +4781,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>187</v>
       </c>
@@ -4697,7 +4798,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -4714,7 +4815,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>189</v>
       </c>
@@ -4731,7 +4832,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>190</v>
       </c>
@@ -4748,7 +4849,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>191</v>
       </c>
@@ -4765,7 +4866,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>192</v>
       </c>
@@ -4782,7 +4883,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>193</v>
       </c>
@@ -4799,7 +4900,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>194</v>
       </c>
@@ -4810,7 +4911,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>195</v>
       </c>
@@ -4827,7 +4928,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>196</v>
       </c>
@@ -4838,7 +4939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>197</v>
       </c>
@@ -4855,7 +4956,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>198</v>
       </c>
@@ -4869,7 +4970,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>199</v>
       </c>
@@ -4886,7 +4987,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>200</v>
       </c>
@@ -4903,7 +5004,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>201</v>
       </c>
@@ -4920,7 +5021,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>202</v>
       </c>
@@ -4930,8 +5031,11 @@
       <c r="C206" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D206" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>203</v>
       </c>
@@ -4948,7 +5052,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>204</v>
       </c>
@@ -4965,7 +5069,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>205</v>
       </c>
@@ -4982,7 +5086,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>206</v>
       </c>
@@ -4999,7 +5103,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>207</v>
       </c>
@@ -5016,7 +5120,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>208</v>
       </c>
@@ -5026,8 +5130,11 @@
       <c r="C212" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D212" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>209</v>
       </c>
@@ -5037,8 +5144,11 @@
       <c r="C213" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D213" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>210</v>
       </c>
@@ -5048,8 +5158,11 @@
       <c r="C214" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D214" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>211</v>
       </c>
@@ -5059,8 +5172,11 @@
       <c r="C215" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D215" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>212</v>
       </c>
@@ -5070,8 +5186,11 @@
       <c r="C216" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D216" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>213</v>
       </c>
@@ -5081,8 +5200,11 @@
       <c r="C217" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D217" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>214</v>
       </c>
@@ -5094,7 +5216,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}"/>
+  <autoFilter ref="A1:E218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Unknown"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CC7DA4-F91C-4AC9-AAF8-645AB7FC1A0D}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0DED88-1585-4F57-B42C-A3107C390047}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2370" windowWidth="16170" windowHeight="15285" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
+    <workbookView xWindow="4620" yWindow="2400" windowWidth="16170" windowHeight="15285" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1208,9 +1208,6 @@
     <t>There are good work opportunities for me, if I choose to take them</t>
   </si>
   <si>
-    <t>INTERCONNECTIONS_110</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -1560,6 +1557,9 @@
   </si>
   <si>
     <t>Other - Get dummies</t>
+  </si>
+  <si>
+    <t>INTERCONNECTIONS_1</t>
   </si>
 </sst>
 </file>
@@ -1933,10 +1933,10 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D206" sqref="D206:D217"/>
+      <selection pane="bottomRight" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,22 +1955,22 @@
         <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2003,10 +2003,10 @@
         <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>225</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2048,10 +2048,10 @@
         <v>225</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2224,10 +2224,10 @@
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2241,10 +2241,10 @@
         <v>225</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2258,10 +2258,10 @@
         <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2292,10 +2292,10 @@
         <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2309,10 +2309,10 @@
         <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2326,10 +2326,10 @@
         <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2343,10 +2343,10 @@
         <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2360,10 +2360,10 @@
         <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2377,13 +2377,13 @@
         <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2438,10 +2438,10 @@
         <v>225</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2455,10 +2455,10 @@
         <v>225</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2472,10 +2472,10 @@
         <v>225</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2489,10 +2489,10 @@
         <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2506,10 +2506,10 @@
         <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2523,10 +2523,10 @@
         <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2540,10 +2540,10 @@
         <v>260</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -2557,10 +2557,10 @@
         <v>260</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2574,13 +2574,13 @@
         <v>225</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>225</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2682,13 +2682,13 @@
         <v>225</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2710,10 +2710,10 @@
         <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2727,10 +2727,10 @@
         <v>225</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2744,13 +2744,13 @@
         <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>284</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2802,16 +2802,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>225</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2842,10 +2842,10 @@
         <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2859,10 +2859,10 @@
         <v>225</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2876,10 +2876,10 @@
         <v>225</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2910,10 +2910,10 @@
         <v>225</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>225</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2944,10 +2944,10 @@
         <v>225</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>280</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>280</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>280</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>280</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>280</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>280</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>280</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>280</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>280</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3101,10 +3101,10 @@
         <v>225</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3118,10 +3118,10 @@
         <v>225</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3132,13 +3132,13 @@
         <v>260</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -3149,10 +3149,10 @@
         <v>307</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3163,10 +3163,10 @@
         <v>260</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>260</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3191,13 +3191,13 @@
         <v>260</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,13 +3208,13 @@
         <v>225</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3236,10 +3236,10 @@
         <v>225</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3272,13 +3272,13 @@
         <v>225</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3300,13 +3300,13 @@
         <v>225</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3328,13 +3328,13 @@
         <v>225</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3345,13 +3345,13 @@
         <v>225</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3362,13 +3362,13 @@
         <v>225</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3379,13 +3379,13 @@
         <v>225</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3396,13 +3396,13 @@
         <v>225</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3424,13 +3424,13 @@
         <v>225</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>225</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3477,10 +3477,10 @@
         <v>225</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>217</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>217</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3545,7 @@
         <v>217</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>217</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>225</v>
@@ -3579,7 +3579,7 @@
         <v>217</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3596,10 +3596,10 @@
         <v>217</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3610,13 +3610,13 @@
         <v>225</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3627,13 +3627,13 @@
         <v>225</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3655,10 +3655,10 @@
         <v>225</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3672,10 +3672,10 @@
         <v>225</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3689,10 +3689,10 @@
         <v>225</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -3706,10 +3706,10 @@
         <v>225</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3723,10 +3723,10 @@
         <v>225</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3740,13 +3740,13 @@
         <v>225</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3779,10 +3779,10 @@
         <v>225</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -3796,13 +3796,13 @@
         <v>225</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3813,13 +3813,13 @@
         <v>225</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -3830,13 +3830,13 @@
         <v>225</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3847,13 +3847,13 @@
         <v>225</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -3864,13 +3864,13 @@
         <v>225</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3881,13 +3881,13 @@
         <v>225</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>225</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3915,13 +3915,13 @@
         <v>225</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3932,13 +3932,13 @@
         <v>225</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3949,13 +3949,13 @@
         <v>225</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3966,13 +3966,13 @@
         <v>225</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3983,30 +3983,30 @@
         <v>225</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -4028,13 +4028,13 @@
         <v>225</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -4056,10 +4056,10 @@
         <v>260</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -4070,13 +4070,13 @@
         <v>225</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -4087,13 +4087,13 @@
         <v>225</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -4104,13 +4104,13 @@
         <v>225</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -4121,13 +4121,13 @@
         <v>225</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -4138,13 +4138,13 @@
         <v>225</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -4155,13 +4155,13 @@
         <v>225</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -4172,13 +4172,13 @@
         <v>225</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>372</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>225</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>225</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4250,10 +4250,10 @@
         <v>225</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -4275,10 +4275,10 @@
         <v>225</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4292,13 +4292,13 @@
         <v>225</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>225</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
         <v>225</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>225</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>225</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>225</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4401,21 +4401,21 @@
         <v>225</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C166" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4423,13 +4423,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4437,13 +4437,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4451,13 +4451,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4465,13 +4465,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4479,13 +4479,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4493,13 +4493,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4507,13 +4507,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4521,13 +4521,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4535,13 +4535,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4549,13 +4549,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4563,16 +4563,16 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4580,16 +4580,16 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4597,16 +4597,16 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4614,16 +4614,16 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4631,21 +4631,21 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>260</v>
@@ -4656,16 +4656,16 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4673,16 +4673,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4690,16 +4690,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4707,16 +4707,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4724,24 +4724,24 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>280</v>
@@ -4752,16 +4752,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4769,16 +4769,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4786,16 +4786,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4803,16 +4803,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4820,16 +4820,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4837,16 +4837,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4854,16 +4854,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4871,16 +4871,16 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4888,24 +4888,24 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>225</v>
@@ -4916,24 +4916,24 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>280</v>
@@ -4944,16 +4944,16 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4961,13 +4961,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4975,16 +4975,16 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="D203" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -4992,16 +4992,16 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5009,16 +5009,16 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5026,13 +5026,13 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5040,16 +5040,16 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5057,16 +5057,16 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5074,16 +5074,16 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5091,16 +5091,16 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -5108,16 +5108,16 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5125,13 +5125,13 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5139,13 +5139,13 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5153,13 +5153,13 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5167,13 +5167,13 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5181,13 +5181,13 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5195,31 +5195,33 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D217" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E218" xr:uid="{E2E8EBA6-BC44-4A85-B0A6-0425C7845EEA}">
     <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Unknown"/>
+      <filters>
+        <filter val="Financial Experiences"/>
+        <filter val="Other"/>
+        <filter val="Other - Get dummies"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/etl/dataset_info.xlsx
+++ b/etl/dataset_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1b6eac9468f35d/Desktop/Classwork/Projects/04-financial-well-being/etl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0DED88-1585-4F57-B42C-A3107C390047}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{BB3E5B40-FC40-440C-9181-2401A3B9C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BD19E1-7847-45E2-B760-697971BC54CB}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="2400" windowWidth="16170" windowHeight="15285" xr2:uid="{C35A3E50-8FED-4AB1-8F96-65A1C14B4758}"/>
   </bookViews>
@@ -1933,10 +1933,10 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2009,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>506</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>163</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>164</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>165</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>167</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>168</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>169</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>170</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>171</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>172</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>177</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>202</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>208</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>209</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>210</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>211</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>212</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>213</v>
       </c>
@@ -5220,8 +5220,6 @@
     <filterColumn colId="3">
       <filters>
         <filter val="Financial Experiences"/>
-        <filter val="Other"/>
-        <filter val="Other - Get dummies"/>
       </filters>
     </filterColumn>
   </autoFilter>
